--- a/Jiratest.xlsx
+++ b/Jiratest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF090FA-9C6E-415F-98D6-285A5589376E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B7AF4-0778-4302-80E9-A9C5F29E55F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
   </si>
   <si>
     <t>Not required</t>
@@ -627,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,10 +1092,10 @@
         <v>54</v>
       </c>
       <c r="I30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" t="s">
         <v>67</v>
-      </c>
-      <c r="J30" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">

--- a/Jiratest.xlsx
+++ b/Jiratest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B7AF4-0778-4302-80E9-A9C5F29E55F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23801B-0429-44DA-81DF-1C6A201DF650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Not required</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1095,7 @@
         <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J30" t="s">
         <v>67</v>

--- a/Jiratest.xlsx
+++ b/Jiratest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23801B-0429-44DA-81DF-1C6A201DF650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94F578A-4956-47D9-9B10-AEC69EA0316F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -221,12 +221,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Not required</t>
-  </si>
-  <si>
-    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -627,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -919,7 +913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>17</v>
       </c>
@@ -933,7 +927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>21</v>
       </c>
@@ -944,7 +938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>24</v>
       </c>
@@ -955,7 +949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>27</v>
       </c>
@@ -966,7 +960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>30</v>
       </c>
@@ -977,7 +971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>33</v>
       </c>
@@ -988,7 +982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>36</v>
       </c>
@@ -999,7 +993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1025,7 +1019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>17</v>
       </c>
@@ -1039,7 +1033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>21</v>
       </c>
@@ -1050,7 +1044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>24</v>
       </c>
@@ -1061,7 +1055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>27</v>
       </c>
@@ -1072,7 +1066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1095,13 +1089,10 @@
         <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>18</v>
       </c>
@@ -1112,7 +1103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>21</v>
       </c>

--- a/Jiratest.xlsx
+++ b/Jiratest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -212,6 +212,198 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Campaign is deleted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Convert Lead to Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Lead tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Lead Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of the  Leads displayed, select the appropriate Lead.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Lead details page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Convert button to convert Lead to Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Convert Lead successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Lead Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Lead Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Lead Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Record Owner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Record Owner field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Record Owner field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Send Email to the Owner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Send Email to the Owner field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Send Email to the Owner field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Account Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Opportunity Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Opportunity Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Opportunity Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Do not create a new opportunity upon conversion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Do not create a new opportunity upon conversion field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Do not create a new opportunity upon conversion field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Converted Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Converted Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Converted Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Subject field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Subject field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Due Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Due Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Due Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Priority field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Priority field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Comments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Comments field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Comments field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Set Reminder On/Off</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Set Reminder On/Off field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Set Reminder On/Off field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Reminder Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Reminder Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Reminder Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Reminder Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Reminder Time field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Reminder Time field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Accounts successfully displayed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -295,8 +487,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J32" totalsRowShown="0">
-  <x:autoFilter ref="A1:J32"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J51" totalsRowShown="0">
+  <x:autoFilter ref="A1:J51"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -601,7 +793,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J32"/>
+  <x:dimension ref="A1:J51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -609,10 +801,10 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.130625000000002" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.130625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="125.70062499999999" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="123.130625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="107.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
@@ -1264,6 +1456,386 @@
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:10">
+      <x:c r="A33" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s"/>
+      <x:c r="F33" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s"/>
+      <x:c r="J33" s="0" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:10">
+      <x:c r="A34" s="0" t="s"/>
+      <x:c r="B34" s="0" t="s"/>
+      <x:c r="C34" s="0" t="s"/>
+      <x:c r="D34" s="0" t="s"/>
+      <x:c r="E34" s="0" t="s"/>
+      <x:c r="F34" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s"/>
+      <x:c r="J34" s="0" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:10">
+      <x:c r="A35" s="0" t="s"/>
+      <x:c r="B35" s="0" t="s"/>
+      <x:c r="C35" s="0" t="s"/>
+      <x:c r="D35" s="0" t="s"/>
+      <x:c r="E35" s="0" t="s"/>
+      <x:c r="F35" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s"/>
+      <x:c r="J35" s="0" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:10">
+      <x:c r="A36" s="0" t="s"/>
+      <x:c r="B36" s="0" t="s"/>
+      <x:c r="C36" s="0" t="s"/>
+      <x:c r="D36" s="0" t="s"/>
+      <x:c r="E36" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s"/>
+      <x:c r="J36" s="0" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:10">
+      <x:c r="A37" s="0" t="s"/>
+      <x:c r="B37" s="0" t="s"/>
+      <x:c r="C37" s="0" t="s"/>
+      <x:c r="D37" s="0" t="s"/>
+      <x:c r="E37" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s"/>
+      <x:c r="J37" s="0" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:10">
+      <x:c r="A38" s="0" t="s"/>
+      <x:c r="B38" s="0" t="s"/>
+      <x:c r="C38" s="0" t="s"/>
+      <x:c r="D38" s="0" t="s"/>
+      <x:c r="E38" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s"/>
+      <x:c r="J38" s="0" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:10">
+      <x:c r="A39" s="0" t="s"/>
+      <x:c r="B39" s="0" t="s"/>
+      <x:c r="C39" s="0" t="s"/>
+      <x:c r="D39" s="0" t="s"/>
+      <x:c r="E39" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s"/>
+      <x:c r="J39" s="0" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:10">
+      <x:c r="A40" s="0" t="s"/>
+      <x:c r="B40" s="0" t="s"/>
+      <x:c r="C40" s="0" t="s"/>
+      <x:c r="D40" s="0" t="s"/>
+      <x:c r="E40" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s"/>
+      <x:c r="J40" s="0" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:10">
+      <x:c r="A41" s="0" t="s"/>
+      <x:c r="B41" s="0" t="s"/>
+      <x:c r="C41" s="0" t="s"/>
+      <x:c r="D41" s="0" t="s"/>
+      <x:c r="E41" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s"/>
+      <x:c r="J41" s="0" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:10">
+      <x:c r="A42" s="0" t="s"/>
+      <x:c r="B42" s="0" t="s"/>
+      <x:c r="C42" s="0" t="s"/>
+      <x:c r="D42" s="0" t="s"/>
+      <x:c r="E42" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s"/>
+      <x:c r="J42" s="0" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:10">
+      <x:c r="A43" s="0" t="s"/>
+      <x:c r="B43" s="0" t="s"/>
+      <x:c r="C43" s="0" t="s"/>
+      <x:c r="D43" s="0" t="s"/>
+      <x:c r="E43" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s"/>
+      <x:c r="J43" s="0" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:10">
+      <x:c r="A44" s="0" t="s"/>
+      <x:c r="B44" s="0" t="s"/>
+      <x:c r="C44" s="0" t="s"/>
+      <x:c r="D44" s="0" t="s"/>
+      <x:c r="E44" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s"/>
+      <x:c r="J44" s="0" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:10">
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
+      <x:c r="E45" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s"/>
+      <x:c r="J45" s="0" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:10">
+      <x:c r="A46" s="0" t="s"/>
+      <x:c r="B46" s="0" t="s"/>
+      <x:c r="C46" s="0" t="s"/>
+      <x:c r="D46" s="0" t="s"/>
+      <x:c r="E46" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s"/>
+      <x:c r="J46" s="0" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:10">
+      <x:c r="A47" s="0" t="s"/>
+      <x:c r="B47" s="0" t="s"/>
+      <x:c r="C47" s="0" t="s"/>
+      <x:c r="D47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s"/>
+      <x:c r="J47" s="0" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:10">
+      <x:c r="A48" s="0" t="s"/>
+      <x:c r="B48" s="0" t="s"/>
+      <x:c r="C48" s="0" t="s"/>
+      <x:c r="D48" s="0" t="s"/>
+      <x:c r="E48" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s"/>
+      <x:c r="J48" s="0" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:10">
+      <x:c r="A49" s="0" t="s"/>
+      <x:c r="B49" s="0" t="s"/>
+      <x:c r="C49" s="0" t="s"/>
+      <x:c r="D49" s="0" t="s"/>
+      <x:c r="E49" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s"/>
+      <x:c r="J49" s="0" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:10">
+      <x:c r="A50" s="0" t="s"/>
+      <x:c r="B50" s="0" t="s"/>
+      <x:c r="C50" s="0" t="s"/>
+      <x:c r="D50" s="0" t="s"/>
+      <x:c r="E50" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s"/>
+      <x:c r="J50" s="0" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:10">
+      <x:c r="A51" s="0" t="s"/>
+      <x:c r="B51" s="0" t="s"/>
+      <x:c r="C51" s="0" t="s"/>
+      <x:c r="D51" s="0" t="s"/>
+      <x:c r="E51" s="0" t="s"/>
+      <x:c r="F51" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s"/>
+      <x:c r="J51" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Jiratest.xlsx
+++ b/Jiratest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -212,198 +212,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Campaign is deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Convert Lead to Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Lead tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Lead Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of the  Leads displayed, select the appropriate Lead.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Lead details page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Convert button to convert Lead to Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Details of Convert Lead successfully displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Lead Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Lead Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Lead Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Record Owner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Record Owner field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Record Owner field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Send Email to the Owner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Send Email to the Owner field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Send Email to the Owner field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Account Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Opportunity Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Opportunity Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Opportunity Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Do not create a new opportunity upon conversion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Do not create a new opportunity upon conversion field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Do not create a new opportunity upon conversion field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Converted Status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Converted Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Converted Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Subject</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Subject field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Subject field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Due Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Due Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Due Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Priority field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Priority field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Comments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Comments field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Comments field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Set Reminder On/Off</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Set Reminder On/Off field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Set Reminder On/Off field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Reminder Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Reminder Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Reminder Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Reminder Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Reminder Time field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Reminder Time field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Details of Accounts successfully displayed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -487,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J51" totalsRowShown="0">
-  <x:autoFilter ref="A1:J51"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J32" totalsRowShown="0">
+  <x:autoFilter ref="A1:J32"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -793,7 +601,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J51"/>
+  <x:dimension ref="A1:J32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -801,10 +609,10 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="28.130625000000002" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.130625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="125.70062499999999" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="123.130625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="107.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
@@ -1456,386 +1264,6 @@
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:10">
-      <x:c r="A33" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="s"/>
-      <x:c r="F33" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G33" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="I33" s="0" t="s"/>
-      <x:c r="J33" s="0" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:10">
-      <x:c r="A34" s="0" t="s"/>
-      <x:c r="B34" s="0" t="s"/>
-      <x:c r="C34" s="0" t="s"/>
-      <x:c r="D34" s="0" t="s"/>
-      <x:c r="E34" s="0" t="s"/>
-      <x:c r="F34" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G34" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I34" s="0" t="s"/>
-      <x:c r="J34" s="0" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:10">
-      <x:c r="A35" s="0" t="s"/>
-      <x:c r="B35" s="0" t="s"/>
-      <x:c r="C35" s="0" t="s"/>
-      <x:c r="D35" s="0" t="s"/>
-      <x:c r="E35" s="0" t="s"/>
-      <x:c r="F35" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G35" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="I35" s="0" t="s"/>
-      <x:c r="J35" s="0" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:10">
-      <x:c r="A36" s="0" t="s"/>
-      <x:c r="B36" s="0" t="s"/>
-      <x:c r="C36" s="0" t="s"/>
-      <x:c r="D36" s="0" t="s"/>
-      <x:c r="E36" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F36" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="I36" s="0" t="s"/>
-      <x:c r="J36" s="0" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:10">
-      <x:c r="A37" s="0" t="s"/>
-      <x:c r="B37" s="0" t="s"/>
-      <x:c r="C37" s="0" t="s"/>
-      <x:c r="D37" s="0" t="s"/>
-      <x:c r="E37" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F37" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I37" s="0" t="s"/>
-      <x:c r="J37" s="0" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:10">
-      <x:c r="A38" s="0" t="s"/>
-      <x:c r="B38" s="0" t="s"/>
-      <x:c r="C38" s="0" t="s"/>
-      <x:c r="D38" s="0" t="s"/>
-      <x:c r="E38" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F38" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G38" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I38" s="0" t="s"/>
-      <x:c r="J38" s="0" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:10">
-      <x:c r="A39" s="0" t="s"/>
-      <x:c r="B39" s="0" t="s"/>
-      <x:c r="C39" s="0" t="s"/>
-      <x:c r="D39" s="0" t="s"/>
-      <x:c r="E39" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="F39" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G39" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="I39" s="0" t="s"/>
-      <x:c r="J39" s="0" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:10">
-      <x:c r="A40" s="0" t="s"/>
-      <x:c r="B40" s="0" t="s"/>
-      <x:c r="C40" s="0" t="s"/>
-      <x:c r="D40" s="0" t="s"/>
-      <x:c r="E40" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F40" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G40" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I40" s="0" t="s"/>
-      <x:c r="J40" s="0" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:10">
-      <x:c r="A41" s="0" t="s"/>
-      <x:c r="B41" s="0" t="s"/>
-      <x:c r="C41" s="0" t="s"/>
-      <x:c r="D41" s="0" t="s"/>
-      <x:c r="E41" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F41" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="G41" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="I41" s="0" t="s"/>
-      <x:c r="J41" s="0" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:10">
-      <x:c r="A42" s="0" t="s"/>
-      <x:c r="B42" s="0" t="s"/>
-      <x:c r="C42" s="0" t="s"/>
-      <x:c r="D42" s="0" t="s"/>
-      <x:c r="E42" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="G42" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="I42" s="0" t="s"/>
-      <x:c r="J42" s="0" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:10">
-      <x:c r="A43" s="0" t="s"/>
-      <x:c r="B43" s="0" t="s"/>
-      <x:c r="C43" s="0" t="s"/>
-      <x:c r="D43" s="0" t="s"/>
-      <x:c r="E43" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="F43" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G43" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="I43" s="0" t="s"/>
-      <x:c r="J43" s="0" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:10">
-      <x:c r="A44" s="0" t="s"/>
-      <x:c r="B44" s="0" t="s"/>
-      <x:c r="C44" s="0" t="s"/>
-      <x:c r="D44" s="0" t="s"/>
-      <x:c r="E44" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F44" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="G44" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="H44" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="I44" s="0" t="s"/>
-      <x:c r="J44" s="0" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:10">
-      <x:c r="A45" s="0" t="s"/>
-      <x:c r="B45" s="0" t="s"/>
-      <x:c r="C45" s="0" t="s"/>
-      <x:c r="D45" s="0" t="s"/>
-      <x:c r="E45" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="F45" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G45" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H45" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="I45" s="0" t="s"/>
-      <x:c r="J45" s="0" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:10">
-      <x:c r="A46" s="0" t="s"/>
-      <x:c r="B46" s="0" t="s"/>
-      <x:c r="C46" s="0" t="s"/>
-      <x:c r="D46" s="0" t="s"/>
-      <x:c r="E46" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="F46" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="G46" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H46" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="I46" s="0" t="s"/>
-      <x:c r="J46" s="0" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:10">
-      <x:c r="A47" s="0" t="s"/>
-      <x:c r="B47" s="0" t="s"/>
-      <x:c r="C47" s="0" t="s"/>
-      <x:c r="D47" s="0" t="s"/>
-      <x:c r="E47" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F47" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="G47" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H47" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="I47" s="0" t="s"/>
-      <x:c r="J47" s="0" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:10">
-      <x:c r="A48" s="0" t="s"/>
-      <x:c r="B48" s="0" t="s"/>
-      <x:c r="C48" s="0" t="s"/>
-      <x:c r="D48" s="0" t="s"/>
-      <x:c r="E48" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F48" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="G48" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="H48" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="I48" s="0" t="s"/>
-      <x:c r="J48" s="0" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:10">
-      <x:c r="A49" s="0" t="s"/>
-      <x:c r="B49" s="0" t="s"/>
-      <x:c r="C49" s="0" t="s"/>
-      <x:c r="D49" s="0" t="s"/>
-      <x:c r="E49" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="F49" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="G49" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="I49" s="0" t="s"/>
-      <x:c r="J49" s="0" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:10">
-      <x:c r="A50" s="0" t="s"/>
-      <x:c r="B50" s="0" t="s"/>
-      <x:c r="C50" s="0" t="s"/>
-      <x:c r="D50" s="0" t="s"/>
-      <x:c r="E50" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="F50" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="G50" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="H50" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="I50" s="0" t="s"/>
-      <x:c r="J50" s="0" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:10">
-      <x:c r="A51" s="0" t="s"/>
-      <x:c r="B51" s="0" t="s"/>
-      <x:c r="C51" s="0" t="s"/>
-      <x:c r="D51" s="0" t="s"/>
-      <x:c r="E51" s="0" t="s"/>
-      <x:c r="F51" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="I51" s="0" t="s"/>
-      <x:c r="J51" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
